--- a/biology/Zoologie/Bruselin_de_Przewalski/Bruselin_de_Przewalski.xlsx
+++ b/biology/Zoologie/Bruselin_de_Przewalski/Bruselin_de_Przewalski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urocynchramus pylzowi
 Le Bruselin de Przewalski (Urocynchramus pylzowi), unique représentant du genre Urocynchramus et de la famille des Urocynchramidae, est une espèce de passereaux endémique des montagnes du centre de la Chine.
